--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43445,6 +43445,41 @@
         <v>250300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>396900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43480,6 +43480,41 @@
         <v>396900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>226500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43515,6 +43515,41 @@
         <v>226500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>8196500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43550,6 +43550,41 @@
         <v>8196500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1032400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43585,6 +43585,41 @@
         <v>1032400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>683100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43620,6 +43620,41 @@
         <v>683100</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1750100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43655,6 +43655,41 @@
         <v>1750100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1198000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43690,6 +43690,41 @@
         <v>1198000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>531300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43725,6 +43725,41 @@
         <v>531300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>721700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43760,6 +43760,41 @@
         <v>721700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43795,6 +43795,41 @@
         <v>1000000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>721100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43830,6 +43830,41 @@
         <v>721100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>788200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43865,6 +43865,76 @@
         <v>788200</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>663900</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>667300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43935,6 +43935,76 @@
         <v>667300</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>709500</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>504700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44005,6 +44005,41 @@
         <v>504700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>320400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44040,6 +44040,41 @@
         <v>320400</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1423100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44075,6 +44075,41 @@
         <v>1423100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>795500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44110,6 +44110,41 @@
         <v>795500</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1148300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44145,6 +44145,76 @@
         <v>1148300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>838400</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1141000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44215,6 +44215,41 @@
         <v>1141000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>898600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44250,6 +44250,41 @@
         <v>898600</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>940800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2072"/>
+  <dimension ref="A1:I2073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73370,6 +73370,41 @@
         <v>940800</v>
       </c>
     </row>
+    <row r="2073">
+      <c r="A2073" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2073" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2073" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2073" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2073" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2073" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2073" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2073" t="n">
+        <v>1009800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2073"/>
+  <dimension ref="A1:I2074"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73405,6 +73405,41 @@
         <v>1009800</v>
       </c>
     </row>
+    <row r="2074">
+      <c r="A2074" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2074" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2074" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2074" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2074" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2074" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2074" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2074" t="n">
+        <v>1426800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2074"/>
+  <dimension ref="A1:I2075"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73440,6 +73440,41 @@
         <v>1426800</v>
       </c>
     </row>
+    <row r="2075">
+      <c r="A2075" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2075" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2075" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2075" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2075" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2075" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2075" t="n">
+        <v>2530000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2075"/>
+  <dimension ref="A1:I2076"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73475,6 +73475,41 @@
         <v>2530000</v>
       </c>
     </row>
+    <row r="2076">
+      <c r="A2076" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2076" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2076" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2076" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2076" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G2076" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H2076" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2076" t="n">
+        <v>4358500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2076"/>
+  <dimension ref="A1:I2077"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73510,6 +73510,41 @@
         <v>4358500</v>
       </c>
     </row>
+    <row r="2077">
+      <c r="A2077" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2077" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2077" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2077" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2077" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2077" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2077" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2077" t="n">
+        <v>6110100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2077"/>
+  <dimension ref="A1:I2078"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73545,6 +73545,41 @@
         <v>6110100</v>
       </c>
     </row>
+    <row r="2078">
+      <c r="A2078" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2078" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2078" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2078" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2078" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2078" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2078" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2078" t="n">
+        <v>1993100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2078"/>
+  <dimension ref="A1:I2079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73580,6 +73580,41 @@
         <v>1993100</v>
       </c>
     </row>
+    <row r="2079">
+      <c r="A2079" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2079" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2079" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2079" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2079" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2079" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2079" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2079" t="n">
+        <v>2489000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2079"/>
+  <dimension ref="A1:I2080"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73615,6 +73615,41 @@
         <v>2489000</v>
       </c>
     </row>
+    <row r="2080">
+      <c r="A2080" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2080" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2080" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2080" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2080" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2080" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2080" t="n">
+        <v>4364600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2080"/>
+  <dimension ref="A1:I2081"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73650,6 +73650,41 @@
         <v>4364600</v>
       </c>
     </row>
+    <row r="2081">
+      <c r="A2081" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2081" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2081" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2081" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G2081" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2081" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2081" t="n">
+        <v>5458100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2081"/>
+  <dimension ref="A1:I2082"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73685,6 +73685,41 @@
         <v>5458100</v>
       </c>
     </row>
+    <row r="2082">
+      <c r="A2082" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2082" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2082" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2082" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F2082" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2082" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H2082" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I2082" t="n">
+        <v>8553600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2082"/>
+  <dimension ref="A1:I2083"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73720,6 +73720,41 @@
         <v>8553600</v>
       </c>
     </row>
+    <row r="2083">
+      <c r="A2083" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2083" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2083" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2083" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2083" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2083" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2083" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2083" t="n">
+        <v>4604000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2083"/>
+  <dimension ref="A1:I2084"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73755,6 +73755,41 @@
         <v>4604000</v>
       </c>
     </row>
+    <row r="2084">
+      <c r="A2084" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2084" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2084" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2084" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F2084" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G2084" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2084" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2084" t="n">
+        <v>4449100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2084"/>
+  <dimension ref="A1:I2085"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73790,6 +73790,41 @@
         <v>4449100</v>
       </c>
     </row>
+    <row r="2085">
+      <c r="A2085" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2085" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2085" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2085" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2085" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2085" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2085" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2085" t="n">
+        <v>11069900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2085"/>
+  <dimension ref="A1:I2086"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73825,6 +73825,41 @@
         <v>11069900</v>
       </c>
     </row>
+    <row r="2086">
+      <c r="A2086" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2086" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2086" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2086" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2086" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G2086" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2086" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I2086" t="n">
+        <v>10676900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2086"/>
+  <dimension ref="A1:I2087"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73860,6 +73860,41 @@
         <v>10676900</v>
       </c>
     </row>
+    <row r="2087">
+      <c r="A2087" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2087" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2087" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2087" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2087" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2087" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H2087" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2087" t="n">
+        <v>6243300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2087"/>
+  <dimension ref="A1:I2088"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73895,6 +73895,41 @@
         <v>6243300</v>
       </c>
     </row>
+    <row r="2088">
+      <c r="A2088" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2088" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2088" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2088" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2088" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2088" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2088" t="n">
+        <v>35659600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2088"/>
+  <dimension ref="A1:I2089"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73930,6 +73930,41 @@
         <v>35659600</v>
       </c>
     </row>
+    <row r="2089">
+      <c r="A2089" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2089" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F2089" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2089" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2089" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2089" t="n">
+        <v>37749300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2089"/>
+  <dimension ref="A1:I2090"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73965,6 +73965,41 @@
         <v>37749300</v>
       </c>
     </row>
+    <row r="2090">
+      <c r="A2090" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2090" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2090" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2090" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2090" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2090" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2090" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2090" t="n">
+        <v>20755000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2090"/>
+  <dimension ref="A1:I2091"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74000,6 +74000,41 @@
         <v>20755000</v>
       </c>
     </row>
+    <row r="2091">
+      <c r="A2091" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2091" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2091" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2091" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2091" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2091" t="n">
+        <v>10467400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2091"/>
+  <dimension ref="A1:I2092"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74035,6 +74035,41 @@
         <v>10467400</v>
       </c>
     </row>
+    <row r="2092">
+      <c r="A2092" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2092" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2092" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2092" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2092" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2092" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2092" t="n">
+        <v>13298300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2092"/>
+  <dimension ref="A1:I2093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74070,6 +74070,41 @@
         <v>13298300</v>
       </c>
     </row>
+    <row r="2093">
+      <c r="A2093" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2093" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2093" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2093" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2093" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2093" t="n">
+        <v>8139600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2093"/>
+  <dimension ref="A1:I2094"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74105,6 +74105,41 @@
         <v>8139600</v>
       </c>
     </row>
+    <row r="2094">
+      <c r="A2094" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2094" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2094" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2094" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2094" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2094" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2094" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2094" t="n">
+        <v>10829200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2094"/>
+  <dimension ref="A1:I2095"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74140,6 +74140,41 @@
         <v>10829200</v>
       </c>
     </row>
+    <row r="2095">
+      <c r="A2095" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2095" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2095" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2095" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2095" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2095" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H2095" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2095" t="n">
+        <v>10190200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2095"/>
+  <dimension ref="A1:I2096"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74175,6 +74175,41 @@
         <v>10190200</v>
       </c>
     </row>
+    <row r="2096">
+      <c r="A2096" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2096" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2096" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2096" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2096" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2096" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2096" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2096" t="n">
+        <v>6502200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2096"/>
+  <dimension ref="A1:I2097"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74210,6 +74210,41 @@
         <v>6502200</v>
       </c>
     </row>
+    <row r="2097">
+      <c r="A2097" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2097" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2097" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2097" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2097" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2097" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2097" t="n">
+        <v>17178500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2097"/>
+  <dimension ref="A1:I2099"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74245,6 +74245,76 @@
         <v>17178500</v>
       </c>
     </row>
+    <row r="2098">
+      <c r="A2098" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2098" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2098" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2098" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F2098" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G2098" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H2098" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I2098" t="n">
+        <v>153581800</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2099" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2099" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2099" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F2099" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G2099" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H2099" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I2099" t="n">
+        <v>150052600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2099"/>
+  <dimension ref="A1:I2100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74315,6 +74315,41 @@
         <v>150052600</v>
       </c>
     </row>
+    <row r="2100">
+      <c r="A2100" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>7145</t>
+        </is>
+      </c>
+      <c r="D2100" t="inlineStr">
+        <is>
+          <t>AGES</t>
+        </is>
+      </c>
+      <c r="E2100" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2100" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2100" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2100" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2100" t="n">
+        <v>74598700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2100"/>
+  <dimension ref="A1:I2103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74350,6 +74350,111 @@
         <v>74598700</v>
       </c>
     </row>
+    <row r="2101">
+      <c r="A2101" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2101" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F2101" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G2101" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H2101" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I2101" t="n">
+        <v>43196200</v>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2102" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F2102" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2102" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H2102" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I2102" t="n">
+        <v>38243100</v>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2103" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2103" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2103" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G2103" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2103" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I2103" t="n">
+        <v>22674500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2103"/>
+  <dimension ref="A1:I2104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74455,6 +74455,41 @@
         <v>22674500</v>
       </c>
     </row>
+    <row r="2104">
+      <c r="A2104" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2104" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F2104" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2104" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H2104" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I2104" t="n">
+        <v>21813900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2104"/>
+  <dimension ref="A1:I2105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74490,6 +74490,41 @@
         <v>21813900</v>
       </c>
     </row>
+    <row r="2105">
+      <c r="A2105" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2105" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F2105" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G2105" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H2105" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I2105" t="n">
+        <v>12716300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5202.xlsx
+++ b/data/5202.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2105"/>
+  <dimension ref="A1:I2108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74525,6 +74525,111 @@
         <v>12716300</v>
       </c>
     </row>
+    <row r="2106">
+      <c r="A2106" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2106" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F2106" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G2106" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H2106" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I2106" t="n">
+        <v>29154000</v>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2107" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2107" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F2107" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G2107" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H2107" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I2107" t="n">
+        <v>6593600</v>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="D2108" t="inlineStr">
+        <is>
+          <t>MSM</t>
+        </is>
+      </c>
+      <c r="E2108" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F2108" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G2108" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H2108" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2108" t="n">
+        <v>48990300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
